--- a/biology/Botanique/Zanthoxylum_gilletii/Zanthoxylum_gilletii.xlsx
+++ b/biology/Botanique/Zanthoxylum_gilletii/Zanthoxylum_gilletii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zanthoxylum gilletii, également connu en français sous l'appellation « Olon dur », « citronnier d'Afrique » ou « faux citronnier[2] », est une espèce d'arbres de la famille des Rutaceae et du genre Zanthoxylum, présente en Afrique tropicale. Ses fruits constituent une épice proche du poivre appelée « uzazi ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zanthoxylum gilletii, également connu en français sous l'appellation « Olon dur », « citronnier d'Afrique » ou « faux citronnier », est une espèce d'arbres de la famille des Rutaceae et du genre Zanthoxylum, présente en Afrique tropicale. Ses fruits constituent une épice proche du poivre appelée « uzazi ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve depuis la Guinée et la Sierra Leone jusqu'au Kenya, également vers le sud, au nord de l'Angola, au Zimbabwe et au Mozambique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve depuis la Guinée et la Sierra Leone jusqu'au Kenya, également vers le sud, au nord de l'Angola, au Zimbabwe et au Mozambique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bois connaît de nombreuses utilisations dans la construction, comme bois de feu et pour la production de charbon de bois. L'écorce et les racines sont très utilisées en médecine traditionnelle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois connaît de nombreuses utilisations dans la construction, comme bois de feu et pour la production de charbon de bois. L'écorce et les racines sont très utilisées en médecine traditionnelle.
 </t>
         </is>
       </c>
